--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1210162</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.9661691319</x:v>
+        <x:v>45924.0410699421</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45915.9661691319</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.5459148148</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45906.5459148148</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Electronics-2: Analog and Digital Electronics (EECS201) Location : [20322]20322-32-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -1835,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.9661691319</x:v>
+        <x:v>45927.0666777778</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>

--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>abdelrahman mohamed fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمود ابراهيم محمد هيكل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1220257</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.0855813657</x:v>
+        <x:v>45927.4143021644</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4178289699</x:v>
+        <x:v>45913.0855813657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4178289699</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.0835952894</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6652144329</x:v>
+        <x:v>45913.0835952894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647888889</x:v>
+        <x:v>45906.6652144329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6646315972</x:v>
+        <x:v>45906.6647888889</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.0752474884</x:v>
+        <x:v>45906.6646315972</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4157335995</x:v>
+        <x:v>45913.0752474884</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6643790509</x:v>
+        <x:v>45906.4157335995</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6642594097</x:v>
+        <x:v>45906.6643790509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4156296643</x:v>
+        <x:v>45906.6642594097</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6649520833</x:v>
+        <x:v>45909.4156296643</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.6649520833</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6663738079</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45924.0410699421</x:v>
+        <x:v>45906.6663738079</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.0666777778</x:v>
+        <x:v>45924.0410699421</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45927.0666777778</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.5459148148</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.5459148148</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,6 +337,15 @@
   </x:si>
   <x:si>
     <x:t>Nouran Shams Eldeen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي ايمن احمد عبد المقصود احمد خلف الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yahia Ayman Ahmed Abdelmaksoud Ahmed Khalafallah</x:t>
   </x:si>
   <x:si>
     <x:t>1210334</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.5459148148</x:v>
+        <x:v>45927.8533488079</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.5459148148</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -309,7 +309,7 @@
     <x:t>محمد هاني فوزي محمد الخطيب</x:t>
   </x:si>
   <x:si>
-    <x:t>MOHAMMED HANY FAWZY MOHAMMED ALKHATEEB</x:t>
+    <x:t>Mohammed Hany Fawzy Mohammed Alkhateeb</x:t>
   </x:si>
   <x:si>
     <x:t>1210377</x:t>

--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -120,7 +120,7 @@
     <x:t>عبد الرحمن على السيد محمد السيد الحديدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Ali ElSayed Mohamed</x:t>
+    <x:t>Abdul Rahman Ali Elsayed Muhammad Elsayed Alhadidi</x:t>
   </x:si>
   <x:si>
     <x:t>1220011</x:t>

--- a/downloaded_files/EECS201_Tutorial-35297.xlsx
+++ b/downloaded_files/EECS201_Tutorial-35297.xlsx
@@ -165,7 +165,7 @@
     <x:t>عبدالله محمد عبدالحميد صبحى المهدى</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdallah Mohamed ElMahdy</x:t>
+    <x:t>Abdallah Mohamed AbdelHameed Sobhy ElMahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210018</x:t>
@@ -255,7 +255,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
